--- a/Theory/Front End/data/report.xlsx
+++ b/Theory/Front End/data/report.xlsx
@@ -412,13 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="20.33203125" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="4" max="4"/>
@@ -452,6 +452,266 @@
           <t>Phone no.</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Event 1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>E-1 Entry</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Event 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>E-2 Entry</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Event 3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>E-3 Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dummy14-1411111111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dummy14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>dum14@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1411111111</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dumx-5648970321</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dumx</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dasf@gmailc.om</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5648970321</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fkdjlhgwuihdf-5647893210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fkdjlhgwuihdf</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sdjhfg@cndj.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5647893210</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>jhklsdf-7896542130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jhklsdf</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hduis@lknd.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7896542130</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>jhsdbfjshdfb-2315467890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jhsdbfjshdfb</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sdfsdfsdf@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2315467890</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>jkdfghkdfjg-5123456789</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jkdfghkdfjg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>fhsdj@mkglf.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5123456789</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Theory/Front End/data/report.xlsx
+++ b/Theory/Front End/data/report.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,22 +489,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy14-1411111111</t>
+          <t>ajay krishna-1256789011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dummy14</t>
+          <t>ajay krishna</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dum14@gmail.com</t>
+          <t>akri@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1411111111</t>
+          <t>1256789011</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Entered</t>
+          <t>Not Entered</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dumx-5648970321</t>
+          <t>dummy14-1411111111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dumx</t>
+          <t>dummy14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dasf@gmailc.om</t>
+          <t>dum14@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5648970321</t>
+          <t>1411111111</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -559,32 +559,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fkdjlhgwuihdf-5647893210</t>
+          <t>dumx-5648970321</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>fkdjlhgwuihdf</t>
+          <t>dumx</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sdjhfg@cndj.com</t>
+          <t>dasf@gmailc.om</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5647893210</t>
+          <t>5648970321</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>coding</t>
+          <t>pubg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Not Entered</t>
+          <t>Entered</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jhklsdf-7896542130</t>
+          <t>fkdjlhgwuihdf-5647893210</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jhklsdf</t>
+          <t>fkdjlhgwuihdf</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hduis@lknd.com</t>
+          <t>sdjhfg@cndj.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7896542130</t>
+          <t>5647893210</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>pubg</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -629,50 +629,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jhsdbfjshdfb-2315467890</t>
+          <t>jhklsdf-7896542130</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jhsdbfjshdfb</t>
+          <t>jhklsdf</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sdfsdfsdf@gmail.com</t>
+          <t>hduis@lknd.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2315467890</t>
+          <t>7896542130</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>coding</t>
+          <t>pubg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>pubg</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>Not Entered</t>
         </is>
@@ -684,30 +664,130 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>jhsdbfjshdfb-2315467890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jhsdbfjshdfb</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sdfsdfsdf@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2315467890</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>jkdfghkdfjg-5123456789</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>jkdfghkdfjg</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>fhsdj@mkglf.com</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5123456789</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>john wick-5647890123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>john wick</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>johnw@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5647890123</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Not Entered</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>fifa</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Not Entered</t>
         </is>
